--- a/concentrator_calculator/data/centrifuge_data.xlsx
+++ b/concentrator_calculator/data/centrifuge_data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <r>
       <t>Volume [</t>
@@ -49,52 +49,27 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0 time [s]</t>
-    </r>
+    <t>Temperature [°C]</t>
   </si>
   <si>
-    <t>EtOH time [s]</t>
+    <t>Liquid</t>
   </si>
   <si>
-    <t>Temperature [°C]</t>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>time [s]</t>
+  </si>
+  <si>
+    <t>EtOH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -444,30 +419,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B11 D1:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,11 +455,11 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>480</v>
-      </c>
-      <c r="D2">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,11 +469,11 @@
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>720</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,11 +483,11 @@
       <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>900</v>
-      </c>
-      <c r="D4">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,11 +497,11 @@
       <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>1080</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,11 +511,11 @@
       <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>1200</v>
-      </c>
-      <c r="D6">
-        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,11 +525,11 @@
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>1740</v>
-      </c>
-      <c r="D7">
-        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,11 +539,11 @@
       <c r="B8">
         <v>200</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>2400</v>
-      </c>
-      <c r="D8">
-        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,11 +553,11 @@
       <c r="B9">
         <v>300</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>2640</v>
-      </c>
-      <c r="D9">
-        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,11 +567,11 @@
       <c r="B10">
         <v>400</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>3120</v>
-      </c>
-      <c r="D10">
-        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,10 +581,150 @@
       <c r="B11">
         <v>500</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>3480</v>
       </c>
-      <c r="D11">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>1080</v>
       </c>
     </row>
